--- a/Documents/starlitePL.xlsx
+++ b/Documents/starlitePL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB8326-133D-4D27-908D-A59B2B49F014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E7130-6D0F-47D3-B921-343A5126DB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="780" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="1920" windowWidth="18960" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assy Parts List" sheetId="2" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Inner acrylic can 1/8" thick, but it will be harder to solder the LED strips to the pin headers</t>
-  </si>
-  <si>
     <t>Each point of a star uses a strip of 7 LEDs, so the 60 LED strip must be cut up</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>Starlite PCB Parts Parts List</t>
+  </si>
+  <si>
+    <t>Inner acrylic can be 1/8" thick, but it will be harder to solder the LED strips to the pin headers</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C196E-C6EB-45EC-83D9-3BE1DD3E80C5}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="26"/>
@@ -1048,7 +1048,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="26"/>
@@ -1067,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1084,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6"/>
       <c r="G1" t="s">

--- a/Documents/starlitePL.xlsx
+++ b/Documents/starlitePL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E7130-6D0F-47D3-B921-343A5126DB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7EBEA8-00CC-4713-9124-D92DF8309F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="1920" windowWidth="18960" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="108" windowWidth="17280" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assy Parts List" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -163,9 +163,6 @@
     <t>1/3 of order</t>
   </si>
   <si>
-    <t>Aproximate</t>
-  </si>
-  <si>
     <t>Screw, Polycarb, 4-40, 3/8"</t>
   </si>
   <si>
@@ -257,6 +254,42 @@
   </si>
   <si>
     <t>Inner acrylic can be 1/8" thick, but it will be harder to solder the LED strips to the pin headers</t>
+  </si>
+  <si>
+    <t>See Notes Below</t>
+  </si>
+  <si>
+    <t>Sparkfun LED Strip is obsolete.  Alternates are:</t>
+  </si>
+  <si>
+    <t>SK6812-3535-60W5</t>
+  </si>
+  <si>
+    <t>White, 1 meter</t>
+  </si>
+  <si>
+    <t>Alitove</t>
+  </si>
+  <si>
+    <t>AL2812WH120NP2M5MM</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>H/A</t>
+  </si>
+  <si>
+    <t>B093CWF55Y</t>
+  </si>
+  <si>
+    <t>SuperLightingLED</t>
+  </si>
+  <si>
+    <t>Direct, China</t>
+  </si>
+  <si>
+    <t>White, 2 meters</t>
   </si>
 </sst>
 </file>
@@ -319,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -416,12 +449,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,6 +579,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -789,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C196E-C6EB-45EC-83D9-3BE1DD3E80C5}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -799,16 +887,17 @@
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -845,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
@@ -854,9 +943,7 @@
         <f>45.1/2</f>
         <v>22.55</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -869,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>40</v>
@@ -879,12 +966,12 @@
         <v>22.55</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -893,7 +980,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -945,7 +1032,9 @@
       <c r="F8" s="28">
         <v>14.95</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -958,7 +1047,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>37</v>
@@ -1010,16 +1099,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1028,34 +1117,128 @@
         <v>8.5</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="25" t="s">
-        <v>73</v>
+      <c r="A17" s="37"/>
+      <c r="B17" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="28">
+        <v>9.98</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="28">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="28">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="44"/>
+      <c r="F23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,11 +1267,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6"/>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1119,7 +1302,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1128,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
@@ -1142,7 +1325,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1166,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -1190,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1214,7 +1397,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -1238,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1262,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -1271,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -1286,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1310,7 +1493,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
@@ -1319,7 +1502,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -1357,10 +1540,10 @@
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -1372,14 +1555,14 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="20"/>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">

--- a/Documents/starlitePL.xlsx
+++ b/Documents/starlitePL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7EBEA8-00CC-4713-9124-D92DF8309F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97258A4E-15B2-4D19-93A1-F64E6AA75752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="108" windowWidth="17280" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5136" yWindow="1776" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assy Parts List" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Description</t>
   </si>
@@ -259,9 +259,6 @@
     <t>See Notes Below</t>
   </si>
   <si>
-    <t>Sparkfun LED Strip is obsolete.  Alternates are:</t>
-  </si>
-  <si>
     <t>SK6812-3535-60W5</t>
   </si>
   <si>
@@ -290,6 +287,15 @@
   </si>
   <si>
     <t>White, 2 meters</t>
+  </si>
+  <si>
+    <t>Alternates are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparkfun LED Strip is obsolete.  Any 60 LED per meter strip, 4 or 5mm wide, and uses SK6812 or </t>
+  </si>
+  <si>
+    <t>WS2812B LEDs will work.</t>
   </si>
 </sst>
 </file>
@@ -451,15 +457,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -487,12 +484,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +583,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -587,15 +594,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -877,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C196E-C6EB-45EC-83D9-3BE1DD3E80C5}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1140,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="55" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -1131,114 +1150,136 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="50"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="47"/>
+        <v>88</v>
+      </c>
+      <c r="C18" s="51"/>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>43</v>
-      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="28">
-        <v>9.98</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="28">
+        <v>9.98</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F23" s="28">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="28">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="28">
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="28">
         <v>17.690000000000001</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="44"/>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="44"/>
+      <c r="G24" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="43"/>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
